--- a/simulation_tasks/hazira_monthly_metrics.xlsx
+++ b/simulation_tasks/hazira_monthly_metrics.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,20 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>crane_downtime_hrs</t>
+          <t>quay_crane_downtime_hrs</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>yard_crane_downtime_hrs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>trucks_processed</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>kwh_consumption</t>
         </is>
@@ -482,12 +487,15 @@
         <v>109437</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>55.09166666666667</v>
-      </c>
-      <c r="F2" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>36.54166666666666</v>
+      </c>
+      <c r="G2" t="n">
         <v>4034</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>4781233.85</v>
       </c>
     </row>
@@ -507,12 +515,15 @@
         <v>104830</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>48.80833333333333</v>
-      </c>
-      <c r="F3" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>32.20833333333334</v>
+      </c>
+      <c r="G3" t="n">
         <v>3669</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>4318533.8</v>
       </c>
     </row>
@@ -532,12 +543,15 @@
         <v>127637</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>54.25</v>
-      </c>
-      <c r="F4" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G4" t="n">
         <v>4061</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>5760522.3</v>
       </c>
     </row>
@@ -557,12 +571,15 @@
         <v>112143</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>52.76666666666667</v>
-      </c>
-      <c r="F5" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>35.16666666666666</v>
+      </c>
+      <c r="G5" t="n">
         <v>3931</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>5574699</v>
       </c>
     </row>
@@ -582,12 +599,15 @@
         <v>163496</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>53.74166666666667</v>
-      </c>
-      <c r="F6" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>35.79166666666666</v>
+      </c>
+      <c r="G6" t="n">
         <v>4061</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>5760522.3</v>
       </c>
     </row>
@@ -607,12 +627,15 @@
         <v>118760</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>51.725</v>
-      </c>
-      <c r="F7" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>34.375</v>
+      </c>
+      <c r="G7" t="n">
         <v>3925</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>6522397.5</v>
       </c>
     </row>
@@ -632,12 +655,15 @@
         <v>143977</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>55.075</v>
-      </c>
-      <c r="F8" t="n">
+        <v>18.95</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>36.125</v>
+      </c>
+      <c r="G8" t="n">
         <v>4058</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>6739810.75</v>
       </c>
     </row>
@@ -657,12 +683,15 @@
         <v>127388</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>55.55</v>
-      </c>
-      <c r="F9" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>36.25</v>
+      </c>
+      <c r="G9" t="n">
         <v>4059</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>6739810.75</v>
       </c>
     </row>
@@ -682,12 +711,15 @@
         <v>108891</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>52.68333333333333</v>
-      </c>
-      <c r="F10" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>35.33333333333334</v>
+      </c>
+      <c r="G10" t="n">
         <v>3936</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>5574699</v>
       </c>
     </row>
@@ -707,12 +739,15 @@
         <v>146688</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>53.95</v>
-      </c>
-      <c r="F11" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G11" t="n">
         <v>4057</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>5760522.3</v>
       </c>
     </row>
@@ -732,12 +767,15 @@
         <v>139114</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>53.28333333333333</v>
-      </c>
-      <c r="F12" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>35.58333333333334</v>
+      </c>
+      <c r="G12" t="n">
         <v>3910</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>5574699</v>
       </c>
     </row>
@@ -757,12 +795,15 @@
         <v>141294</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>54.51666666666667</v>
-      </c>
-      <c r="F13" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>36.16666666666666</v>
+      </c>
+      <c r="G13" t="n">
         <v>4052</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>4781233.85</v>
       </c>
     </row>

--- a/simulation_tasks/hazira_monthly_metrics.xlsx
+++ b/simulation_tasks/hazira_monthly_metrics.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>avg_vessel_turnaround_hrs</t>
+          <t>vessel_service_hrs</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -452,17 +452,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>quay_crane_downtime_hrs</t>
+          <t>quay_crane</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>yard_crane_downtime_hrs</t>
+          <t>yard_crane</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>trucks_processed</t>
+          <t>truck_entry</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
